--- a/big-data/pamap2/src/test/resources/thread_res.xlsx
+++ b/big-data/pamap2/src/test/resources/thread_res.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELETCH-MASTERS-DEGREE\Big Data\eltech-masters-degree\big-data\pamap2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949B20E-1C16-4E91-89E7-A32904BD9DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC11D3-B9FA-4C6D-A6C2-0B587B8E2DF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5835" windowWidth="21600" windowHeight="11385" xr2:uid="{F09A1A69-85EF-4201-9A2E-CE2CEDABAAAA}"/>
+    <workbookView xWindow="-8085" yWindow="45" windowWidth="21600" windowHeight="11385" xr2:uid="{F09A1A69-85EF-4201-9A2E-CE2CEDABAAAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="thread_res_1" localSheetId="0">Лист1!$A$1:$G$5</definedName>
+    <definedName name="thread_res" localSheetId="0">Лист1!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D48EFCDC-2FFA-4493-B230-06C7D28C0039}" name="thread_res" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{7CD619F1-4257-4196-AED5-B181DC401C7E}" name="thread_res" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\ELETCH-MASTERS-DEGREE\Big Data\eltech-masters-degree\big-data\pamap2\src\test\resources\thread_res.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -296,16 +296,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4043553221264E-2</c:v>
+                    <c:v>0.40584445172464101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13258846620412401</c:v>
+                    <c:v>8.3968357842262795E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.168397306057782</c:v>
+                    <c:v>9.0934622003563406E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.184533565006267</c:v>
+                    <c:v>8.37553420915709E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -317,16 +317,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.4043553221264E-2</c:v>
+                    <c:v>0.40584445172464101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13258846620412401</c:v>
+                    <c:v>8.3968357842262795E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.168397306057782</c:v>
+                    <c:v>9.0934622003563406E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.184533565006267</c:v>
+                    <c:v>8.37553420915709E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -352,16 +352,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4712341011666801</c:v>
+                  <c:v>1.7239441089497201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7988562696542301</c:v>
+                  <c:v>1.7178167508253199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.03349641496852</c:v>
+                  <c:v>1.81970508358299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0211302619153102</c:v>
+                  <c:v>1.74513082651447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,15 +1209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3188074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>113179</xdr:rowOff>
+      <xdr:colOff>3137087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1030941</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>189379</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="thread_res_1" connectionId="1" xr16:uid="{33D5B99F-2886-49F8-8FA1-404D46AE37DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="thread_res" connectionId="1" xr16:uid="{442311D1-D0AA-46CB-91CF-31DC8245CB6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,12 +1549,12 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>1.4712341011666801</v>
+        <v>1.7239441089497201</v>
       </c>
       <c r="F2" s="5">
-        <v>8.4043553221264E-2</v>
+        <v>0.40584445172464101</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -1630,16 +1630,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>1.7988562696542301</v>
+        <v>1.7178167508253199</v>
       </c>
       <c r="F3" s="6">
-        <v>0.13258846620412401</v>
+        <v>8.3968357842262795E-2</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1658,16 +1658,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>2.03349641496852</v>
+        <v>1.81970508358299</v>
       </c>
       <c r="F4" s="6">
-        <v>0.168397306057782</v>
+        <v>9.0934622003563406E-2</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -1686,16 +1686,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>2.0211302619153102</v>
+        <v>1.74513082651447</v>
       </c>
       <c r="F5" s="7">
-        <v>0.184533565006267</v>
+        <v>8.37553420915709E-2</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
